--- a/biology/Zoologie/Anchomenus/Anchomenus.xlsx
+++ b/biology/Zoologie/Anchomenus/Anchomenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anchomenus est un genre d'insectes coléoptères de la famille des Carabidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Anchomenus a été créé en 1810 par l'entomologiste italien Franco Andrea Bonelli (1784-1830)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Anchomenus a été créé en 1810 par l'entomologiste italien Franco Andrea Bonelli (1784-1830),.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anchomenus est un genre de carabes originaires du Paléarctique (y compris l'Europe), du Proche-Orient et de l'Afrique du Nord.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il contient les espèces suivantes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il contient les espèces suivantes :
 Anchomenus aeneolus (Leconte, 1854)
 Anchomenus capensis Liebherr, 1991
 Anchomenus cyaneus Dejean, 1828
@@ -618,9 +636,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, le nombre d'espèces fossiles référencées est de deux[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre d'espèces fossiles référencées est de deux :
 †Anchomenus bipunctatus Förster, 1891
 †Anchomenus orphanus Heer, 1847</t>
         </is>
